--- a/MYC_info.xlsx
+++ b/MYC_info.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="600" yWindow="540" windowWidth="23280" windowHeight="11426" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="chipseq_info_MYC" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="atac_info_MYC" sheetId="2" r:id="rId5"/>
+    <sheet name="chipseq_info_MYC" sheetId="1" r:id="rId1"/>
+    <sheet name="atac_info_MYC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -755,69 +758,100 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1007,36 +1041,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.88"/>
-    <col customWidth="1" min="2" max="2" width="36.38"/>
-    <col customWidth="1" min="3" max="3" width="11.63"/>
-    <col customWidth="1" min="4" max="4" width="105.0"/>
-    <col customWidth="1" min="5" max="5" width="9.88"/>
-    <col customWidth="1" min="6" max="6" width="5.75"/>
-    <col customWidth="1" min="7" max="7" width="6.13"/>
-    <col customWidth="1" min="8" max="8" width="10.13"/>
-    <col customWidth="1" min="9" max="9" width="12.63"/>
-    <col customWidth="1" min="10" max="10" width="11.25"/>
-    <col customWidth="1" min="11" max="11" width="12.63"/>
+    <col min="1" max="1" width="9.84375" customWidth="1"/>
+    <col min="2" max="2" width="36.3828125" customWidth="1"/>
+    <col min="3" max="3" width="11.61328125" customWidth="1"/>
+    <col min="4" max="4" width="105" customWidth="1"/>
+    <col min="5" max="5" width="9.84375" customWidth="1"/>
+    <col min="6" max="6" width="5.765625" customWidth="1"/>
+    <col min="7" max="7" width="6.15234375" customWidth="1"/>
+    <col min="8" max="8" width="10.15234375" customWidth="1"/>
+    <col min="9" max="9" width="35.69140625" customWidth="1"/>
+    <col min="10" max="10" width="11.23046875" customWidth="1"/>
+    <col min="11" max="11" width="12.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1088,7 +1125,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
@@ -1106,7 +1143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1123,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="1">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -1141,7 +1178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1158,7 +1195,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="1">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -1176,7 +1213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1193,7 +1230,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="1">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
@@ -1211,7 +1248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1228,7 +1265,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="1">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
@@ -1246,7 +1283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1263,7 +1300,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="1">
-        <v>937.0</v>
+        <v>937</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
@@ -1281,7 +1318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1298,7 +1335,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="1">
-        <v>6109.0</v>
+        <v>6109</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
@@ -1316,7 +1353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1333,7 +1370,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="1">
-        <v>6109.0</v>
+        <v>6109</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -1351,7 +1388,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
@@ -1368,7 +1405,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="1">
-        <v>6109.0</v>
+        <v>6109</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
@@ -1386,7 +1423,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -1403,7 +1440,7 @@
         <v>64</v>
       </c>
       <c r="F11" s="1">
-        <v>6109.0</v>
+        <v>6109</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
@@ -1421,7 +1458,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -1438,7 +1475,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="1">
-        <v>6109.0</v>
+        <v>6109</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
@@ -1456,7 +1493,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -1472,8 +1509,8 @@
       <c r="E13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="1">
-        <v>2219.0</v>
+      <c r="F13" s="4">
+        <v>2219</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
@@ -1481,7 +1518,7 @@
       <c r="H13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1491,7 +1528,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1507,8 +1544,8 @@
       <c r="E14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="1">
-        <v>2219.0</v>
+      <c r="F14" s="4">
+        <v>2219</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>16</v>
@@ -1516,7 +1553,7 @@
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1526,7 +1563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -1542,8 +1579,8 @@
       <c r="E15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="1">
-        <v>2219.0</v>
+      <c r="F15" s="4">
+        <v>2219</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>16</v>
@@ -1551,7 +1588,7 @@
       <c r="H15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="5" t="s">
         <v>86</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -1561,7 +1598,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -1577,8 +1614,8 @@
       <c r="E16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="1">
-        <v>2219.0</v>
+      <c r="F16" s="4">
+        <v>2219</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>16</v>
@@ -1586,7 +1623,7 @@
       <c r="H16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="4" t="s">
         <v>91</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1596,7 +1633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
@@ -1612,8 +1649,8 @@
       <c r="E17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="1">
-        <v>2219.0</v>
+      <c r="F17" s="4">
+        <v>2219</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>16</v>
@@ -1621,7 +1658,7 @@
       <c r="H17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="4" t="s">
         <v>97</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -1631,7 +1668,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
@@ -1647,8 +1684,8 @@
       <c r="E18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="1">
-        <v>2219.0</v>
+      <c r="F18" s="4">
+        <v>2219</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>16</v>
@@ -1656,7 +1693,7 @@
       <c r="H18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -1666,7 +1703,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
@@ -1682,8 +1719,8 @@
       <c r="E19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="1">
-        <v>2219.0</v>
+      <c r="F19" s="4">
+        <v>2219</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>16</v>
@@ -1691,7 +1728,7 @@
       <c r="H19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="4" t="s">
         <v>108</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1701,7 +1738,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
@@ -1717,8 +1754,8 @@
       <c r="E20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="1">
-        <v>2219.0</v>
+      <c r="F20" s="4">
+        <v>2219</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>16</v>
@@ -1726,7 +1763,7 @@
       <c r="H20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="4" t="s">
         <v>113</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1736,7 +1773,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
@@ -1750,7 +1787,7 @@
         <v>117</v>
       </c>
       <c r="F21" s="1">
-        <v>5285.0</v>
+        <v>5285</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>16</v>
@@ -1758,7 +1795,7 @@
       <c r="H21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="4" t="s">
         <v>118</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1768,7 +1805,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
@@ -1782,7 +1819,7 @@
         <v>117</v>
       </c>
       <c r="F22" s="1">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>16</v>
@@ -1790,7 +1827,7 @@
       <c r="H22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="4" t="s">
         <v>121</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1800,7 +1837,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>123</v>
       </c>
@@ -1814,7 +1851,7 @@
         <v>117</v>
       </c>
       <c r="F23" s="1">
-        <v>9085.0</v>
+        <v>9085</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>16</v>
@@ -1822,7 +1859,7 @@
       <c r="H23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="4" t="s">
         <v>124</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1832,7 +1869,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>126</v>
       </c>
@@ -1846,7 +1883,7 @@
         <v>117</v>
       </c>
       <c r="F24" s="1">
-        <v>7668.0</v>
+        <v>7668</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>16</v>
@@ -1854,7 +1891,7 @@
       <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="4" t="s">
         <v>127</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1865,24 +1902,30 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="19.63"/>
+    <col min="3" max="3" width="19.61328125" customWidth="1"/>
+    <col min="4" max="4" width="34.84375" customWidth="1"/>
+    <col min="5" max="5" width="33.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -1912,8 +1955,8 @@
       <c r="C2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="3">
-        <v>937.0</v>
+      <c r="D2" s="6">
+        <v>937</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>131</v>
@@ -1922,7 +1965,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>133</v>
       </c>
@@ -1932,8 +1975,8 @@
       <c r="C3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="3">
-        <v>937.0</v>
+      <c r="D3" s="6">
+        <v>937</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>134</v>
@@ -1942,7 +1985,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>136</v>
       </c>
@@ -1952,8 +1995,8 @@
       <c r="C4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="3">
-        <v>937.0</v>
+      <c r="D4" s="6">
+        <v>937</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>137</v>
@@ -1962,7 +2005,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>139</v>
       </c>
@@ -1972,8 +2015,8 @@
       <c r="C5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="3">
-        <v>937.0</v>
+      <c r="D5" s="6">
+        <v>937</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>141</v>
@@ -1982,7 +2025,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>143</v>
       </c>
@@ -1992,8 +2035,8 @@
       <c r="C6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="3">
-        <v>937.0</v>
+      <c r="D6" s="6">
+        <v>937</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>144</v>
@@ -2002,7 +2045,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>146</v>
       </c>
@@ -2012,8 +2055,8 @@
       <c r="C7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="3">
-        <v>937.0</v>
+      <c r="D7" s="6">
+        <v>937</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>147</v>
@@ -2022,7 +2065,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>149</v>
       </c>
@@ -2032,8 +2075,8 @@
       <c r="C8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="3">
-        <v>937.0</v>
+      <c r="D8" s="6">
+        <v>937</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>151</v>
@@ -2042,7 +2085,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>153</v>
       </c>
@@ -2052,8 +2095,8 @@
       <c r="C9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="3">
-        <v>937.0</v>
+      <c r="D9" s="6">
+        <v>937</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>154</v>
@@ -2062,7 +2105,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>156</v>
       </c>
@@ -2072,8 +2115,8 @@
       <c r="C10" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="3">
-        <v>937.0</v>
+      <c r="D10" s="6">
+        <v>937</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>157</v>
@@ -2082,7 +2125,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>159</v>
       </c>
@@ -2092,17 +2135,17 @@
       <c r="C11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="3">
-        <v>6109.0</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="6">
+        <v>6109</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>161</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>163</v>
       </c>
@@ -2112,17 +2155,17 @@
       <c r="C12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="3">
-        <v>6109.0</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="6">
+        <v>6109</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>164</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>166</v>
       </c>
@@ -2132,17 +2175,17 @@
       <c r="C13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="3">
-        <v>6109.0</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="6">
+        <v>6109</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>167</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>169</v>
       </c>
@@ -2152,17 +2195,17 @@
       <c r="C14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="3">
-        <v>6109.0</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="6">
+        <v>6109</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>171</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>173</v>
       </c>
@@ -2172,17 +2215,17 @@
       <c r="C15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="3">
-        <v>6109.0</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="6">
+        <v>6109</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>176</v>
       </c>
@@ -2192,17 +2235,17 @@
       <c r="C16" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="3">
-        <v>6109.0</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="6">
+        <v>6109</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>179</v>
       </c>
@@ -2213,7 +2256,7 @@
         <v>180</v>
       </c>
       <c r="D17" s="3">
-        <v>2219.0</v>
+        <v>2219</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>181</v>
@@ -2222,7 +2265,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>183</v>
       </c>
@@ -2233,7 +2276,7 @@
         <v>180</v>
       </c>
       <c r="D18" s="3">
-        <v>2219.0</v>
+        <v>2219</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>184</v>
@@ -2242,7 +2285,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>186</v>
       </c>
@@ -2253,7 +2296,7 @@
         <v>180</v>
       </c>
       <c r="D19" s="3">
-        <v>2219.0</v>
+        <v>2219</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>187</v>
@@ -2262,7 +2305,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>189</v>
       </c>
@@ -2273,7 +2316,7 @@
         <v>190</v>
       </c>
       <c r="D20" s="3">
-        <v>2219.0</v>
+        <v>2219</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>191</v>
@@ -2282,7 +2325,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>193</v>
       </c>
@@ -2293,7 +2336,7 @@
         <v>190</v>
       </c>
       <c r="D21" s="3">
-        <v>2219.0</v>
+        <v>2219</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>194</v>
@@ -2302,7 +2345,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>196</v>
       </c>
@@ -2313,7 +2356,7 @@
         <v>190</v>
       </c>
       <c r="D22" s="3">
-        <v>2219.0</v>
+        <v>2219</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>197</v>
@@ -2322,7 +2365,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>199</v>
       </c>
@@ -2333,7 +2376,7 @@
         <v>200</v>
       </c>
       <c r="D23" s="3">
-        <v>2219.0</v>
+        <v>2219</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>201</v>
@@ -2342,7 +2385,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>203</v>
       </c>
@@ -2353,7 +2396,7 @@
         <v>200</v>
       </c>
       <c r="D24" s="3">
-        <v>2219.0</v>
+        <v>2219</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>204</v>
@@ -2362,7 +2405,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>206</v>
       </c>
@@ -2373,7 +2416,7 @@
         <v>200</v>
       </c>
       <c r="D25" s="3">
-        <v>2219.0</v>
+        <v>2219</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>207</v>
@@ -2382,7 +2425,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>209</v>
       </c>
@@ -2393,7 +2436,7 @@
         <v>210</v>
       </c>
       <c r="D26" s="3">
-        <v>2219.0</v>
+        <v>2219</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>211</v>
@@ -2402,7 +2445,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>213</v>
       </c>
@@ -2413,7 +2456,7 @@
         <v>210</v>
       </c>
       <c r="D27" s="3">
-        <v>2219.0</v>
+        <v>2219</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>214</v>
@@ -2422,7 +2465,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>216</v>
       </c>
@@ -2433,7 +2476,7 @@
         <v>210</v>
       </c>
       <c r="D28" s="3">
-        <v>2219.0</v>
+        <v>2219</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>217</v>
@@ -2442,7 +2485,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>219</v>
       </c>
@@ -2451,7 +2494,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3">
-        <v>2704.0</v>
+        <v>2704</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>220</v>
@@ -2460,7 +2503,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>222</v>
       </c>
@@ -2469,7 +2512,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3">
-        <v>5285.0</v>
+        <v>5285</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>223</v>
@@ -2478,7 +2521,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>225</v>
       </c>
@@ -2487,7 +2530,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3">
-        <v>7670.0</v>
+        <v>7670</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>226</v>
@@ -2496,7 +2539,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>228</v>
       </c>
@@ -2505,7 +2548,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>229</v>
@@ -2514,7 +2557,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>231</v>
       </c>
@@ -2523,7 +2566,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="3">
-        <v>2690.0</v>
+        <v>2690</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>232</v>
@@ -2532,7 +2575,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>234</v>
       </c>
@@ -2541,7 +2584,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3">
-        <v>4660.0</v>
+        <v>4660</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>235</v>
@@ -2550,7 +2593,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>237</v>
       </c>
@@ -2559,7 +2602,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3">
-        <v>9085.0</v>
+        <v>9085</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>238</v>
@@ -2568,7 +2611,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>240</v>
       </c>
@@ -2577,7 +2620,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3">
-        <v>393.0</v>
+        <v>393</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>241</v>
@@ -2586,7 +2629,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>243</v>
       </c>
@@ -2595,7 +2638,7 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3">
-        <v>7668.0</v>
+        <v>7668</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>244</v>
@@ -2605,6 +2648,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>